--- a/exemples/cryptoDogeBnb.xlsx
+++ b/exemples/cryptoDogeBnb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -76,10 +76,10 @@
     <t xml:space="preserve">DOGEUSDT</t>
   </si>
   <si>
-    <t xml:space="preserve">USDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x8ac76a51cc950d9822d68b83fe1ad97b32cd580d</t>
+    <t xml:space="preserve">USDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x55d398326f99059ff775485246999027b3197955</t>
   </si>
   <si>
     <t xml:space="preserve">VAL dollars</t>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t xml:space="preserve">&lt; - initialiser la premiere ligne manuellent : ////valeur cours actuelle ou anticipée crypto/dollars //// 0,00000000001 //// date du jour //// heure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/10/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:45:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:02:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:32:04</t>
   </si>
 </sst>
 </file>
@@ -105,7 +123,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,11 +151,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -225,7 +238,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,12 +283,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -283,10 +296,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -476,13 +485,13 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:C4"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.54"/>
@@ -552,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>1</v>
@@ -571,23 +580,23 @@
       </c>
       <c r="I2" s="5" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>200000</v>
+        <v>0.16994</v>
       </c>
       <c r="J2" s="6" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>200000</v>
+        <v>0.240056363636364</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>240000</v>
+        <v>0.264062</v>
       </c>
       <c r="L2" s="6" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-009</v>
+        <v>33</v>
       </c>
       <c r="M2" s="7" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N2" s="8" t="n">
         <v>8</v>
@@ -611,13 +620,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
-        <v>200000</v>
+        <v>0.2675</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>1E-009</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45962</v>
+        <v>45921</v>
       </c>
       <c r="D4" s="13"/>
       <c r="G4" s="10"/>
@@ -626,19 +635,65 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="14" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="B5" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>45921</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A6" s="14" t="n">
+        <v>0.2282</v>
+      </c>
+      <c r="B6" s="14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
+        <v>0.18483</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.18309</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.16994</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/exemples/cryptoDogeBnb.xlsx
+++ b/exemples/cryptoDogeBnb.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
   <si>
-    <t xml:space="preserve">adress</t>
-  </si>
-  <si>
     <t xml:space="preserve">poucent que je gagnerai</t>
   </si>
   <si>
@@ -95,24 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt; - initialiser la premiere ligne manuellent : ////valeur cours actuelle ou anticipée crypto/dollars //// 0,00000000001 //// date du jour //// heure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/10/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:45:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/11/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:02:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/11/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:32:04</t>
   </si>
 </sst>
 </file>
@@ -153,7 +132,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,7 +148,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
     <fill>
@@ -194,6 +173,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -238,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -283,20 +268,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -352,7 +341,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -485,7 +474,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,90 +502,90 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="5" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>0.16994</v>
+        <v>200000</v>
       </c>
       <c r="J2" s="6" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>0.240056363636364</v>
+        <v>200000</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>0.264062</v>
+        <v>240000</v>
       </c>
       <c r="L2" s="6" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>33</v>
+        <v>1E-011</v>
       </c>
       <c r="M2" s="7" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N2" s="8" t="n">
         <v>8</v>
@@ -604,97 +593,51 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="10"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
-        <v>0.2675</v>
+        <v>200000</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>10</v>
+        <v>1E-011</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45921</v>
+        <v>45919</v>
       </c>
       <c r="D4" s="13"/>
       <c r="G4" s="10"/>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
-        <v>0.2427</v>
-      </c>
-      <c r="B5" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>45921</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
-        <v>0.2282</v>
-      </c>
-      <c r="B6" s="14" t="n">
-        <v>10</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>0.18483</v>
-      </c>
-      <c r="B7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>0.18309</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>0.16994</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/exemples/cryptoDogeBnb.xlsx
+++ b/exemples/cryptoDogeBnb.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">USDT</t>
   </si>
   <si>
-    <t xml:space="preserve">0x55d398326f99059ff775485246999027b3197955</t>
+    <t xml:space="preserve">0x8ac76a51cc950d9822d68b83fe1ad97b32cd580d</t>
   </si>
   <si>
     <t xml:space="preserve">VAL dollars</t>
@@ -132,7 +132,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,7 +148,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -173,12 +173,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -223,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,6 +238,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -268,24 +266,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -341,7 +331,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -474,7 +464,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="A5:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,7 +543,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -564,73 +554,73 @@
       <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>200000</v>
-      </c>
-      <c r="J2" s="6" t="n">
+        <v>0.2675</v>
+      </c>
+      <c r="J2" s="7" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>200000</v>
-      </c>
-      <c r="K2" s="5" t="n">
+        <v>0.2675</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>240000</v>
-      </c>
-      <c r="L2" s="6" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="L2" s="7" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-011</v>
-      </c>
-      <c r="M2" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="8" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="9" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
-        <v>200000</v>
-      </c>
-      <c r="B4" s="11" t="n">
-        <v>1E-011</v>
-      </c>
-      <c r="C4" s="12" t="n">
-        <v>45919</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="G4" s="10"/>
+      <c r="A4" s="12" t="n">
+        <v>0.2675</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>45921</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -638,6 +628,9 @@
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/exemples/cryptoDogeBnb.xlsx
+++ b/exemples/cryptoDogeBnb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">USDT</t>
   </si>
   <si>
-    <t xml:space="preserve">0x8ac76a51cc950d9822d68b83fe1ad97b32cd580d</t>
+    <t xml:space="preserve">0x55d398326f99059ff775485246999027b3197955</t>
   </si>
   <si>
     <t xml:space="preserve">VAL dollars</t>
@@ -92,6 +92,72 @@
   </si>
   <si>
     <t xml:space="preserve">&lt; - initialiser la premiere ligne manuellent : ////valeur cours actuelle ou anticipée crypto/dollars //// 0,00000000001 //// date du jour //// heure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/10/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:45:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:02:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:32:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:35:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:35:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:35:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:35:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:31:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:01:06</t>
   </si>
 </sst>
 </file>
@@ -464,7 +530,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="A5:D22"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -559,23 +625,23 @@
       </c>
       <c r="I2" s="6" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>0.2675</v>
+        <v>0.14929</v>
       </c>
       <c r="J2" s="7" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>0.2675</v>
+        <v>0.218020888888889</v>
       </c>
       <c r="K2" s="6" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>0.321</v>
+        <v>0.261625066666667</v>
       </c>
       <c r="L2" s="7" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M2" s="8" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N2" s="9" t="n">
         <v>8</v>
@@ -614,23 +680,192 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="12" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>45921</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A6" s="12" t="n">
+        <v>0.2282</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.18483</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.18309</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.16994</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.16752</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.16515</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.16376</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.16099</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.16086</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>0.15746</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>0.1554</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>0.15198</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>0.14929</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
